--- a/data/balance_sheet/3digits/total/552_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/552_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>552-Holiday and other short-stay accommodation</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>552-Holiday and other short-stay accommodation</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>134353.07209</v>
@@ -1487,35 +937,40 @@
         <v>259130.598</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>391094.7439000001</v>
+        <v>391094.7439</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>488737.63681</v>
+        <v>488750.64504</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>712119.06015</v>
+        <v>712138.7045399999</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>709706.2514900001</v>
+        <v>724129.6264399999</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>795360.35424</v>
+        <v>797113.35311</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>785483.6845799999</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>770266.6631700001</v>
+        <v>771115.53711</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1217895.28888</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1232621.13772</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1351208.011</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>22337.81042</v>
@@ -1530,72 +985,82 @@
         <v>69294.92883</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>46568.09712</v>
+        <v>46581.09234999999</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>40562.9682</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>32182.94638</v>
+        <v>41088.36851</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>53501.10076</v>
+        <v>54131.2682</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>92672.45152</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>80578.30707000001</v>
+        <v>80728.3634</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>105481.27199</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>106896.64587</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>141774.48</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>3227.719329999999</v>
+        <v>3227.71933</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>5068.12318</v>
+        <v>5068.123180000001</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>5643.53025</v>
+        <v>5643.530250000001</v>
       </c>
       <c r="F7" s="21" t="n">
         <v>12680.61842</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>8345.81558</v>
+        <v>8358.810810000001</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>19594.12592</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>14067.21127</v>
+        <v>14244.77054</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>20892.02724</v>
+        <v>20905.90428</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>23620.74023</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>33594.49081</v>
+        <v>33660.0278</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>33212.88885</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>33803.66244</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>39423.669</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1766.9978</v>
@@ -1610,13 +1075,13 @@
         <v>1638.67254</v>
       </c>
       <c r="G8" s="22" t="n">
-        <v>4789.69206</v>
+        <v>4789.692059999999</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>2452.14385</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>1293.24822</v>
+        <v>6831.30833</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>9116.61649</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>16966.28877</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>25572.109</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>15047.12415</v>
@@ -1656,32 +1126,37 @@
         <v>16911.4306</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>22534.01465</v>
+        <v>25043.7227</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>26967.37924</v>
+        <v>27583.66414</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>53588.39713999999</v>
+        <v>53588.39714</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>33356.30699</v>
+        <v>33391.87331</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>58711.23527</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>59309.89315</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>81080.522</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>47.60022</v>
       </c>
       <c r="D10" s="22" t="n">
-        <v>940.5915000000001</v>
+        <v>940.5915</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>348.64657</v>
@@ -1708,14 +1183,19 @@
         <v>10212.20765</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>10208.28683</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>10349.48683</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>12173.199</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>2343.56936</v>
@@ -1730,32 +1210,37 @@
         <v>8648.301760000002</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>5124.19546</v>
+        <v>5124.195459999999</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>4887.62512</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>5860.80827</v>
+        <v>6540.90297</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>5343.586310000001</v>
+        <v>5343.591810000001</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>5557.258380000001</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>4684.481330000001</v>
+        <v>4733.43435</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>6799.14593</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>7166.28834</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>7871.379</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>12.42401</v>
@@ -1788,14 +1273,19 @@
         <v>1358.68711</v>
       </c>
       <c r="M12" s="23" t="n">
-        <v>581.9163599999999</v>
-      </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+        <v>640.90671</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>4479.278</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0.00023</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>11.93804</v>
@@ -1868,14 +1363,19 @@
         <v>5.83025</v>
       </c>
       <c r="M14" s="22" t="n">
-        <v>1.20378</v>
-      </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+        <v>60.19412999999999</v>
+      </c>
+      <c r="N14" s="22" t="n">
+        <v>755.114</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,18 +1410,23 @@
       <c r="M15" s="22" t="n">
         <v>0.04814</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>0.48597</v>
       </c>
       <c r="D16" s="22" t="n">
-        <v>5.730849999999999</v>
+        <v>5.73085</v>
       </c>
       <c r="E16" s="22" t="n">
         <v>18.0195</v>
@@ -1933,7 +1438,7 @@
         <v>214.47765</v>
       </c>
       <c r="H16" s="21" t="n">
-        <v>84.62979000000001</v>
+        <v>84.62979</v>
       </c>
       <c r="I16" s="22" t="n">
         <v>54.93317</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>580.6642099999999</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>3723.294</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>29959.94807</v>
@@ -2013,29 +1528,34 @@
         <v>180035.25915</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>246744.49759</v>
+        <v>246762.57362</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>162808.02171</v>
+        <v>163776.89051</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>144140.25891</v>
+        <v>144533.00675</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>202908.08275</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>173327.8966</v>
+        <v>173370.49558</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>351785.4196900001</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>354107.24496</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>392423.892</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>7632.50175</v>
@@ -2053,29 +1573,34 @@
         <v>38624.13272</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>63341.57915999999</v>
+        <v>63359.65519</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>72490.45342999999</v>
+        <v>73359.7331</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>73994.73843</v>
+        <v>74342.79670000001</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>133141.05888</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>107148.02614</v>
+        <v>107180.62512</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>239724.66811</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>241893.20946</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>303409.913</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>20615.95267</v>
@@ -2096,10 +1621,10 @@
         <v>172064.70813</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>85737.7319</v>
+        <v>85788.25089999998</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>63353.96111999999</v>
+        <v>63353.96112</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>58204.54276999999</v>
@@ -2108,14 +1633,19 @@
         <v>44233.15094</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>80442.62805</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>80458.62805</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>78642.379</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,18 +1725,23 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>81.03713999999999</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>86.21787999999999</v>
+        <v>86.21788000000001</v>
       </c>
       <c r="E23" s="22" t="n">
         <v>103.18667</v>
@@ -2216,7 +1756,7 @@
         <v>1729.8419</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>2238.3797</v>
+        <v>2239.92606</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>4279.92646</v>
@@ -2225,17 +1765,22 @@
         <v>3534.34034</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>3096.82874</v>
+        <v>3106.82874</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>3635.4069</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>3657.25182</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>4203.436</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1400.16528</v>
@@ -2244,7 +1789,7 @@
         <v>1512.46024</v>
       </c>
       <c r="E24" s="22" t="n">
-        <v>750.75396</v>
+        <v>750.7539600000001</v>
       </c>
       <c r="F24" s="21" t="n">
         <v>3409.17724</v>
@@ -2256,10 +1801,10 @@
         <v>8060.171739999999</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>806.88036</v>
+        <v>854.40413</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>1245.92307</v>
+        <v>1290.61264</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>6655.607</v>
@@ -2268,14 +1813,19 @@
         <v>18077.28623</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>22412.48471</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>22527.92371</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>3947.417</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>5773.902059999999</v>
@@ -2296,7 +1846,7 @@
         <v>4312.148109999999</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>1842.17786</v>
+        <v>4432.177470000001</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>4090.69174</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>9602.20996</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>10628.382</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>5543.61083</v>
@@ -2336,7 +1891,7 @@
         <v>2763.95145</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>307.6015400000001</v>
+        <v>2897.60115</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>2807.39642</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>4031.97804</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>8407.635</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>50150.14614</v>
@@ -2376,26 +1936,31 @@
         <v>30094.21288</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>46807.73573000001</v>
+        <v>47325.31301</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>32045.53441</v>
+        <v>32643.96026</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>46953.32842000001</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>96039.37851000001</v>
+        <v>96039.81231000001</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>210451.27762</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>210481.70409</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>234380.65</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>5287.71303</v>
@@ -2413,29 +1978,34 @@
         <v>9924.395829999999</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>6481.22798</v>
+        <v>6481.227980000001</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>21154.38986</v>
+        <v>21402.00712</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>8905.792519999999</v>
+        <v>9120.63667</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>15718.18561</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>9723.502399999999</v>
+        <v>9723.502400000001</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>13137.23773</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>13140.01846</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>24125.122</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>52.65737</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>41739.27471</v>
@@ -2499,7 +2074,7 @@
         <v>11.81556</v>
       </c>
       <c r="J30" s="21" t="n">
-        <v>454.48594</v>
+        <v>833.3807800000001</v>
       </c>
       <c r="K30" s="22" t="n">
         <v>887.27143</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>887.34702</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>462.001</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0.06645000000000001</v>
@@ -2536,7 +2116,7 @@
         <v>64.32499</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>24.58601</v>
+        <v>29.95639</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>27.89424</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>245.10925</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>293.942</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>3070.43458</v>
@@ -2576,26 +2161,31 @@
         <v>23447.72975</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>25522.25413</v>
+        <v>25786.84377</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>22504.52831</v>
+        <v>22509.21517</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>29946.33532</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>84854.56064</v>
+        <v>84854.99443999999</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>196041.95128</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>196069.59702</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>209359.953</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2659,7 +2254,7 @@
         <v>94.69016999999999</v>
       </c>
       <c r="J34" s="21" t="n">
-        <v>94.69016999999999</v>
+        <v>189.90791</v>
       </c>
       <c r="K34" s="22" t="n">
         <v>182.8939</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>139.63234</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>139.632</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2699,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="21" t="n">
-        <v>0</v>
+        <v>95.21774000000001</v>
       </c>
       <c r="K35" s="22" t="n">
         <v>87.25024000000001</v>
@@ -2710,18 +2310,23 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>23414.77105</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>56392.87767</v>
+        <v>56392.87766999999</v>
       </c>
       <c r="E36" s="23" t="n">
         <v>99567.07578</v>
@@ -2736,26 +2341,31 @@
         <v>303514.5812200001</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>366862.69013</v>
+        <v>368652.27643</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>443366.63537</v>
+        <v>443435.53636</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>313759.57451</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>270790.69701</v>
+        <v>271317.34295</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>355277.70185</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>364243.77925</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>404213.632</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>1826.54874</v>
@@ -2776,7 +2386,7 @@
         <v>16484.8728</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>20804.69923</v>
+        <v>20998.96929</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>28594.69476</v>
@@ -2785,23 +2395,28 @@
         <v>35266.46673000001</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>19688.81452</v>
+        <v>19691.47734</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>31179.00557</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>32185.81647</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>54649.289</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>570.35282</v>
       </c>
       <c r="D38" s="22" t="n">
-        <v>258.4804099999999</v>
+        <v>258.48041</v>
       </c>
       <c r="E38" s="22" t="n">
         <v>4622.38013</v>
@@ -2816,7 +2431,7 @@
         <v>29057.2344</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>42462.18945000001</v>
+        <v>42765.515</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>28151.11701</v>
@@ -2828,14 +2443,19 @@
         <v>51524.93317</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>39425.97213</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>39826.09811</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>44790.354</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>3459.52283</v>
@@ -2862,20 +2482,25 @@
         <v>45581.04264</v>
       </c>
       <c r="K39" s="22" t="n">
-        <v>46924.69047000001</v>
+        <v>46924.69047</v>
       </c>
       <c r="L39" s="22" t="n">
         <v>60640.03186</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>84458.07535</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>86024.46408999999</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>77072.33</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>4112.90281</v>
@@ -2896,26 +2521,31 @@
         <v>10758.01648</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>16331.07514</v>
+        <v>16346.34593</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>24376.35489</v>
+        <v>24386.25588</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>23040.62749</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>23555.80113</v>
+        <v>24079.78425</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>19537.62374</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>23097.73764</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>30316.331</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1037.03212</v>
@@ -2924,19 +2554,19 @@
         <v>1051.18809</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>447.7037700000001</v>
+        <v>447.70377</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>587.2182699999998</v>
+        <v>587.2182700000001</v>
       </c>
       <c r="G41" s="22" t="n">
-        <v>537.1467000000001</v>
+        <v>537.1467</v>
       </c>
       <c r="H41" s="21" t="n">
         <v>544.0334799999999</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>830.11609</v>
+        <v>862.0431200000002</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>1166.17306</v>
@@ -2948,14 +2578,19 @@
         <v>2877.77272</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>3393.6047</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>3468.75951</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>4517.094</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>12408.41173</v>
@@ -3004,22 +2644,22 @@
         <v>43872.84843</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>66518.28071000001</v>
+        <v>66518.28070999999</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>65662.8204</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>92725.88933000001</v>
+        <v>92725.88933000002</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>218063.18213</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>260216.70116</v>
+        <v>261461.49403</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>315497.25301</v>
+        <v>315556.25301</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>161300.40853</v>
@@ -3028,14 +2668,19 @@
         <v>112503.34361</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>177283.42036</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>179640.90343</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>192868.234</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>748.0761600000001</v>
@@ -3047,7 +2692,7 @@
         <v>4580.85714</v>
       </c>
       <c r="F44" s="33" t="n">
-        <v>5696.639210000001</v>
+        <v>5696.63921</v>
       </c>
       <c r="G44" s="23" t="n">
         <v>14993.51815</v>
@@ -3056,7 +2701,7 @@
         <v>15716.74401</v>
       </c>
       <c r="I44" s="23" t="n">
-        <v>20897.25354</v>
+        <v>20997.49581</v>
       </c>
       <c r="J44" s="33" t="n">
         <v>30408.91667</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>10021.17499</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>11732.445</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>748.0761600000001</v>
@@ -3087,7 +2737,7 @@
         <v>4580.85714</v>
       </c>
       <c r="F45" s="21" t="n">
-        <v>5696.639210000001</v>
+        <v>5696.63921</v>
       </c>
       <c r="G45" s="22" t="n">
         <v>13989.25895</v>
@@ -3096,7 +2746,7 @@
         <v>15698.95981</v>
       </c>
       <c r="I45" s="22" t="n">
-        <v>20793.96934</v>
+        <v>20894.21160999999</v>
       </c>
       <c r="J45" s="21" t="n">
         <v>30389.63247</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>9113.443029999999</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>11732.445</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,15 +2850,20 @@
       <c r="M47" s="22" t="n">
         <v>907.73196</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>666.9743099999999</v>
+        <v>666.9743100000001</v>
       </c>
       <c r="D48" s="46" t="n">
         <v>4357.30596</v>
@@ -3216,7 +2881,7 @@
         <v>11520.98351</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>12405.22218</v>
+        <v>12475.89508</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>13796.59732</v>
@@ -3225,17 +2890,22 @@
         <v>12757.64734</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>17589.79277</v>
+        <v>17590.796</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>24294.41916</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>24435.94655</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>23210.103</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>279.15858</v>
@@ -3256,7 +2926,7 @@
         <v>10832.58516</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>10642.81708</v>
+        <v>10713.48998</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>12628.85525</v>
@@ -3265,17 +2935,22 @@
         <v>11812.59616</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>11805.46242</v>
+        <v>11806.46565</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>12478.66752</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>12620.19491</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>15381.091</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>387.81573</v>
@@ -3284,7 +2959,7 @@
         <v>743.5505499999999</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>671.3148799999999</v>
+        <v>671.31488</v>
       </c>
       <c r="F50" s="21" t="n">
         <v>798.4691000000001</v>
@@ -3310,18 +2985,23 @@
       <c r="M50" s="22" t="n">
         <v>11815.75164</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>7829.012</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>7062.92193</v>
       </c>
       <c r="D51" s="46" t="n">
-        <v>7469.25018</v>
+        <v>7469.250180000001</v>
       </c>
       <c r="E51" s="46" t="n">
         <v>13670.47063</v>
@@ -3330,38 +3010,43 @@
         <v>24281.07971</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>35779.49704</v>
+        <v>35779.51004</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>63552.05523000001</v>
+        <v>63553.62359</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>67649.63843000001</v>
+        <v>69720.6437</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>78055.91456</v>
+        <v>78118.67131000001</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>82186.97399</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>124506.47706</v>
+        <v>124634.61272</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>160002.10722</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>161793.7353</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>138993.531</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>6563.93184</v>
       </c>
       <c r="D52" s="22" t="n">
-        <v>6464.11632</v>
+        <v>6464.116319999999</v>
       </c>
       <c r="E52" s="22" t="n">
         <v>11956.36713</v>
@@ -3370,32 +3055,37 @@
         <v>21856.78364</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>31709.54081</v>
+        <v>31709.55381</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>52275.33659000001</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>57615.79754</v>
+        <v>59531.84059000001</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>68054.87792</v>
+        <v>68099.66078999999</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>73368.49649</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>106932.2531</v>
+        <v>107060.38876</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>136405.35015</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>139017.68458</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>117011.603</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0.216</v>
@@ -3419,7 +3109,7 @@
         <v>14.65111</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>9.172210000000002</v>
+        <v>9.17221</v>
       </c>
       <c r="K53" s="22" t="n">
         <v>30.04641</v>
@@ -3428,14 +3118,19 @@
         <v>309.9815</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>156.70513</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>138.41317</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>211.522</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -3453,7 +3148,7 @@
         <v>113.39219</v>
       </c>
       <c r="H54" s="21" t="n">
-        <v>91.92607</v>
+        <v>91.92607000000001</v>
       </c>
       <c r="I54" s="22" t="n">
         <v>232.71503</v>
@@ -3470,18 +3165,23 @@
       <c r="M54" s="22" t="n">
         <v>1748.18819</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>2366.765</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>192.8864</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>300.36831</v>
+        <v>300.3683100000001</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>126.07072</v>
@@ -3493,29 +3193,34 @@
         <v>306.31907</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>421.63646</v>
+        <v>423.20482</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>509.77062</v>
+        <v>664.73284</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>641.2362800000001</v>
+        <v>654.7659299999999</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>915.5596300000001</v>
+        <v>915.55963</v>
       </c>
       <c r="L55" s="22" t="n">
         <v>1635.61655</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>3891.39045</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>3914.39371</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>3618.685</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>243.39755</v>
@@ -3536,26 +3241,31 @@
         <v>10664.85207</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>9156.83539</v>
+        <v>9156.835389999998</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>8986.976779999999</v>
+        <v>8991.42101</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>5946.216619999999</v>
+        <v>5946.21662</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>13718.77143</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>16179.85256</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>15354.43491</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>15489.554</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>62.49014</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>174.21138</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>290.478</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>1446.40936</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>4.682</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>181532.38716</v>
@@ -3729,32 +3459,37 @@
         <v>361158.83823</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>472081.3214300001</v>
+        <v>472081.32143</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>628129.4095</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>645423.87816</v>
+        <v>774013.0796099999</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>841972.5996799999</v>
+        <v>854480.32703</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>992325.7191900001</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>1438719.50815</v>
+        <v>1439243.39651</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>1716537.58521</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>1738008.36355</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1482272.795</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>372.79223</v>
@@ -3766,7 +3501,7 @@
         <v>34595.06957</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>36618.03608000001</v>
+        <v>36618.03608</v>
       </c>
       <c r="G62" s="36" t="n">
         <v>73085.55068</v>
@@ -3775,10 +3510,10 @@
         <v>110789.77644</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>76401.69340999998</v>
+        <v>76469.26259</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>50164.56474</v>
+        <v>50174.22339</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>39535.81288</v>
@@ -3787,14 +3522,19 @@
         <v>6627.541980000001</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>58618.13882000001</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>58650.55123999999</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>2349.103</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>101.72368</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>91.99299999999999</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>337.54247</v>
@@ -3846,7 +3591,7 @@
         <v>33978.5089</v>
       </c>
       <c r="F64" s="21" t="n">
-        <v>35863.23856000001</v>
+        <v>35863.23856</v>
       </c>
       <c r="G64" s="22" t="n">
         <v>68651.43697999998</v>
@@ -3855,7 +3600,7 @@
         <v>109512.2015</v>
       </c>
       <c r="I64" s="22" t="n">
-        <v>75335.61809</v>
+        <v>75395.61809</v>
       </c>
       <c r="J64" s="21" t="n">
         <v>48316.44265999999</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>56028.88211999999</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,36 +3704,41 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
-        <v>35.24975999999999</v>
+        <v>35.24976</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>47.77499</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>616.5606700000001</v>
+        <v>616.56067</v>
       </c>
       <c r="F67" s="21" t="n">
         <v>754.7974199999999</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>771.50282</v>
+        <v>771.5028199999999</v>
       </c>
       <c r="H67" s="21" t="n">
         <v>982.5655400000001</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>1066.07532</v>
+        <v>1073.6445</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>1375.16211</v>
+        <v>1384.82076</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>1896.97937</v>
@@ -3987,14 +3747,19 @@
         <v>1997.49601</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>2487.53302</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>2519.94544</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>2170.71</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>52.82303</v>
@@ -4055,7 +3825,7 @@
         <v>2633.97531</v>
       </c>
       <c r="I69" s="36" t="n">
-        <v>4675.73547</v>
+        <v>4855.735470000001</v>
       </c>
       <c r="J69" s="37" t="n">
         <v>2508.94332</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>5453.8212</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>6067.57</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>52.56578</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>1909.18689</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>2983.531</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0.25725</v>
@@ -4255,7 +4050,7 @@
         <v>1224.27882</v>
       </c>
       <c r="I74" s="22" t="n">
-        <v>3266.16397</v>
+        <v>3446.16397</v>
       </c>
       <c r="J74" s="21" t="n">
         <v>1635.0514</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>3544.634309999999</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>3084.039</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,15 +4154,20 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
-        <v>39253.54187000001</v>
+        <v>39253.54187</v>
       </c>
       <c r="D77" s="23" t="n">
         <v>45270.4122</v>
@@ -4366,7 +4176,7 @@
         <v>43090.60173</v>
       </c>
       <c r="F77" s="33" t="n">
-        <v>60624.11585000001</v>
+        <v>60624.11585</v>
       </c>
       <c r="G77" s="23" t="n">
         <v>17977.34137</v>
@@ -4375,7 +4185,7 @@
         <v>18410.94488</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>4738.71195</v>
+        <v>57082.18195000001</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>77145.32584</v>
@@ -4384,17 +4194,22 @@
         <v>84177.82715000001</v>
       </c>
       <c r="L77" s="23" t="n">
-        <v>73918.49147999998</v>
+        <v>73918.49148</v>
       </c>
       <c r="M77" s="23" t="n">
         <v>97765.18131999999</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>99701.39599999999</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>6.046489999999999</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>56.547</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>56.547</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>33337.92439</v>
@@ -4486,7 +4311,7 @@
         <v>42919.55524</v>
       </c>
       <c r="F80" s="21" t="n">
-        <v>53810.31936000001</v>
+        <v>53810.31936</v>
       </c>
       <c r="G80" s="22" t="n">
         <v>16374.99488</v>
@@ -4495,7 +4320,7 @@
         <v>18340.37288</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>4690.63995</v>
+        <v>15981.10995</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>32016.75384</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>46350.60932</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>47405.1</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>139.325</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>212.975</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>150.475</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>6048.220429999999</v>
@@ -4615,7 +4455,7 @@
         <v>170</v>
       </c>
       <c r="I83" s="22" t="n">
-        <v>220</v>
+        <v>41273</v>
       </c>
       <c r="J83" s="21" t="n">
         <v>45263</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>51364.125</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>52564.125</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>13.125</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>398.125</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0.6755599999999999</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>220</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>224.224</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>136738.17531</v>
@@ -4815,29 +4680,34 @@
         <v>399457.62518</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>450419.41585</v>
+        <v>456202.21929</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>506817.3265800001</v>
+        <v>519308.9045799999</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>643080.04738</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>980362.7822400001</v>
+        <v>980802.80054</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>1109582.80792</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>1127073.26005</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1022973.376</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
-        <v>34932.99290999999</v>
+        <v>34932.99291</v>
       </c>
       <c r="D89" s="22" t="n">
         <v>38771.73729999999</v>
@@ -4855,26 +4725,31 @@
         <v>65515.2524</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>100810.64</v>
+        <v>100985.64</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>101637.03844</v>
+        <v>109683.31463</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>130388.09935</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>142570.55342</v>
+        <v>142841.55342</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>155886.53311</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>157100.26074</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>223960.855</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>2612.28558</v>
@@ -4898,7 +4773,7 @@
         <v>11655.0563</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>12131.35315</v>
+        <v>15133.20881</v>
       </c>
       <c r="K90" s="22" t="n">
         <v>18736.70511</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>19109.40103</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>24040.82</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>44833.75001</v>
@@ -4935,10 +4815,10 @@
         <v>180696.17718</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>180837.07579</v>
+        <v>181411.56419</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>218560.40019</v>
+        <v>221904.67852</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>243610.54948</v>
@@ -4947,26 +4827,31 @@
         <v>411183.53667</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>461178.79266</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>473211.0029199999</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>530696.134</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>3598.44472</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>4281.850469999999</v>
+        <v>4281.85047</v>
       </c>
       <c r="E92" s="22" t="n">
         <v>5845.45415</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>6635.74927</v>
+        <v>6635.749269999999</v>
       </c>
       <c r="G92" s="22" t="n">
         <v>10353.61891</v>
@@ -4975,10 +4860,10 @@
         <v>13748.26666</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>12564.95498</v>
+        <v>12676.27896</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>15701.88906</v>
+        <v>16763.181</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>18890.91884</v>
@@ -4987,23 +4872,28 @@
         <v>58520.21472</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>64153.43691</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>64625.65519</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>63737.675</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
-        <v>7175.10011</v>
+        <v>7175.100109999999</v>
       </c>
       <c r="D93" s="22" t="n">
         <v>8108.56156</v>
       </c>
       <c r="E93" s="22" t="n">
-        <v>8816.917869999999</v>
+        <v>8816.917870000001</v>
       </c>
       <c r="F93" s="21" t="n">
         <v>12001.7101</v>
@@ -5015,26 +4905,31 @@
         <v>16012.10582</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>22754.85851</v>
+        <v>23973.74963</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>26684.38234</v>
+        <v>26982.69384</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>30488.01142</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>42645.61773</v>
+        <v>42743.11773</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>48252.77514</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>49745.62158</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>61603.681</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>15564.99749</v>
@@ -5052,29 +4947,34 @@
         <v>46410.90703</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>64690.10568000001</v>
+        <v>64690.10567999999</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>68378.88386</v>
+        <v>74781.68889</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>96884.72137</v>
+        <v>97311.00699000001</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>108043.79752</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>163037.33221</v>
+        <v>163092.98537</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>196443.89098</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>199297.93059</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>211322.604</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>12.67523</v>
@@ -5095,26 +4995,31 @@
         <v>518.51003</v>
       </c>
       <c r="I95" s="22" t="n">
-        <v>372.43583</v>
+        <v>374.55448</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>389.24339</v>
+        <v>393.49802</v>
       </c>
       <c r="K95" s="22" t="n">
         <v>400.25573</v>
       </c>
       <c r="L95" s="22" t="n">
-        <v>527.83885</v>
+        <v>527.8388500000001</v>
       </c>
       <c r="M95" s="22" t="n">
         <v>536.56585</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>289.514</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>24438.71952</v>
@@ -5135,26 +5040,31 @@
         <v>60654.07420999999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>58504.969</v>
+        <v>62058.55949</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>70591.93944</v>
+        <v>74398.04896</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>88191.56027</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>184698.51762</v>
+        <v>184700.41548</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>214573.76145</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>215950.0389</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>234157.607</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>51009.96267</v>
@@ -5172,29 +5082,34 @@
         <v>67547.03203999999</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>99589.07953999999</v>
+        <v>99589.07954000001</v>
       </c>
       <c r="I97" s="22" t="n">
         <v>106488.28431</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>96597.44703</v>
+        <v>96712.58068</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>145104.17348</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>320854.18617</v>
+        <v>320871.94917</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>370380.08437</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>371181.77173</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>118307.66</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1436.68611</v>
@@ -5215,7 +5130,7 @@
         <v>6895.20121</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>5062.19527</v>
+        <v>5913.96202</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>8822.791050000002</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>8215.089320000001</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>23172.04</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>2346.90284</v>
@@ -5255,26 +5175,31 @@
         <v>23214.46619</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>16158.01139</v>
+        <v>86369.27743</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>90735.36714</v>
+        <v>90741.85784</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>87806.81044999999</v>
+        <v>87806.81045</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>142404.02607</v>
+        <v>142486.62951</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>188919.80684</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>192657.44749</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>195997.541</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>448.88087</v>
@@ -5286,13 +5211,13 @@
         <v>262.28663</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>839.47262</v>
+        <v>839.4726200000001</v>
       </c>
       <c r="G100" s="22" t="n">
         <v>1410.86728</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>5609.83114</v>
+        <v>5609.831139999999</v>
       </c>
       <c r="I100" s="22" t="n">
         <v>3204.71978</v>
@@ -5307,14 +5232,19 @@
         <v>4627.70821</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>25593.34462</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>25599.07832</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>36611.888</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>77.99775</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>95.108</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>66.03867</v>
@@ -5375,26 +5310,31 @@
         <v>219.17924</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>287.97482</v>
+        <v>290.41681</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>321.00666</v>
+        <v>327.49736</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>388.6796000000001</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>444.95228</v>
+        <v>459.17915</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>519.604</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>561.6977800000001</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>625.73</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>24.44455</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>2311.16961</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>2542.962</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>3709.7346</v>
@@ -5443,7 +5388,7 @@
         <v>4340.07013</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>4869.034439999999</v>
+        <v>4869.03444</v>
       </c>
       <c r="F104" s="21" t="n">
         <v>7736.317470000001</v>
@@ -5455,7 +5400,7 @@
         <v>20144.51169</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>17764.25794</v>
+        <v>25517.24245</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>31545.77215</v>
@@ -5464,23 +5409,28 @@
         <v>34964.63524</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>94433.14129</v>
+        <v>94504.58362</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>131702.65829</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>135556.14429</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>157615.429</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>250.1023</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>429.3333</v>
+        <v>429.3333000000001</v>
       </c>
       <c r="E105" s="22" t="n">
         <v>3078.95853</v>
@@ -5495,26 +5445,31 @@
         <v>3397.989610000001</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>851.01543</v>
+        <v>65626.22584</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>65837.62479</v>
+        <v>65845.82261999999</v>
       </c>
       <c r="K105" s="22" t="n">
-        <v>66091.39422999999</v>
+        <v>66091.39423000001</v>
       </c>
       <c r="L105" s="22" t="n">
         <v>70775.30558</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>71222.66690000001</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>71232.34589999999</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>71355.518</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>2152.48995</v>
@@ -5535,26 +5490,31 @@
         <v>7234.96191</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>7068.35454</v>
+        <v>9387.725410000001</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>13142.53646</v>
+        <v>13150.73429</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>17815.23645</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>29154.92297</v>
+        <v>29157.98873</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>42525.32933</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>42698.68116000001</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>72849.094</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0.1918</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>17.695</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>2201.53883</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>2201.53883</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>562.79704</v>
@@ -5855,7 +5850,7 @@
         <v>73127.0018</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>93005.65876999999</v>
+        <v>93009.75156</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>111792.67113</v>
@@ -5864,17 +5859,22 @@
         <v>132044.49014</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>128401.70359</v>
+        <v>128402.97021</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>165115.88091</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>165326.15405</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>151821.895</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>361.62371</v>
@@ -5895,7 +5895,7 @@
         <v>73122.47016</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>93005.65876999999</v>
+        <v>93009.75156</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>111792.67113</v>
@@ -5904,17 +5904,22 @@
         <v>132044.49014</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>128364.32459</v>
+        <v>128365.59121</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>165078.50191</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>165288.77505</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>151821.895</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>201.17333</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>37.379</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>3.81601</v>
@@ -5972,7 +5982,7 @@
         <v>103.41897</v>
       </c>
       <c r="H117" s="33" t="n">
-        <v>495.6197000000001</v>
+        <v>495.6197</v>
       </c>
       <c r="I117" s="23" t="n">
         <v>24.65132</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>91081.9482</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>3361.914</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.01585</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>685.54051</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>149.743</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>114.02361</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>149.535</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>3.80016</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>87898.41640999999</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>13.53128</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>136.211</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,49 +6404,57 @@
       <c r="M126" s="22" t="n">
         <v>2397.49895</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>3198.499</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>315885.45925</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>378632.2991800001</v>
+        <v>378632.29918</v>
       </c>
       <c r="E127" s="23" t="n">
         <v>521158.60148</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>752253.58213</v>
+        <v>752253.5821299999</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>960818.9582399998</v>
+        <v>960831.9664700001</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>1340248.46965</v>
+        <v>1340268.11404</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1355130.12965</v>
+        <v>1498142.70605</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1637332.95392</v>
+        <v>1651593.68014</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>1777809.40377</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>2208986.17132</v>
+        <v>2210358.93362</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2934432.87409</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2970629.50127</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>2833480.806</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>552-Holiday and other short-stay accommodation</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>82942.74885999999</v>
@@ -6507,26 +6584,31 @@
         <v>496048.15296</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>501228.99886</v>
+        <v>514594.28131</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>654966.38789</v>
+        <v>657714.84179</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>865949.12303</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1128862.46724</v>
+        <v>1130594.50325</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1406688.16648</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1430965.48836</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1807281.756</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>17290.97015</v>
@@ -6547,26 +6629,31 @@
         <v>58017.57959</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>58810.49370000001</v>
+        <v>61619.07226000001</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>71275.94417</v>
+        <v>71425.73587999999</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>82700.15607</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>120575.6643</v>
+        <v>120582.92515</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>112452.39551</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>113032.53848</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>110256.334</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>17260.61176</v>
@@ -6587,10 +6674,10 @@
         <v>53875.28765000001</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>55576.45964</v>
+        <v>55667.31782000001</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>64308.46187000001</v>
+        <v>64458.25358</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>67760.89500999999</v>
@@ -6599,14 +6686,19 @@
         <v>102216.52186</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>97239.56305000001</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>97814.59405000001</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>94851.166</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>36.16968</v>
@@ -6627,7 +6719,7 @@
         <v>164.70574</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>0</v>
+        <v>5560.8</v>
       </c>
       <c r="J135" s="21" t="n">
         <v>6132.955</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>14456.56651</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>20224.062</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>7.162</v>
@@ -6667,7 +6764,7 @@
         <v>36.68359</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>0</v>
+        <v>2843.07962</v>
       </c>
       <c r="J136" s="21" t="n">
         <v>3307.73716</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>4553.53771</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>10299.023</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6713,7 +6815,7 @@
         <v>3977.89249</v>
       </c>
       <c r="K137" s="22" t="n">
-        <v>9162.569219999999</v>
+        <v>9162.569220000001</v>
       </c>
       <c r="L137" s="22" t="n">
         <v>9531.477339999999</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>4894.208560000001</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>4696.082</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>1.35071</v>
@@ -6904,10 +7031,10 @@
         <v>357.36078</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>545.70221</v>
+        <v>545.7022099999999</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>289.77828</v>
+        <v>289.7782800000001</v>
       </c>
       <c r="J142" s="21" t="n">
         <v>164.37197</v>
@@ -6916,17 +7043,22 @@
         <v>346.6181</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>452.54095</v>
+        <v>459.8018000000001</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>415.5951</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>420.70707</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>784.047</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>15666.13838</v>
@@ -6941,32 +7073,37 @@
         <v>53956.47292</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>98445.10896000001</v>
+        <v>98445.10896</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>123244.24451</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>101366.34333</v>
+        <v>107106.1731</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>111757.73987</v>
+        <v>112559.59866</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>140821.06337</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>341648.84953</v>
+        <v>342518.05551</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>318858.43755</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>329572.78292</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>302404.169</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>7984.42299</v>
@@ -6987,29 +7124,34 @@
         <v>59080.90325</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>66040.08385000001</v>
+        <v>66878.40433</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>69589.67380999999</v>
+        <v>69881.56056</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>79133.61275</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>292783.10505</v>
+        <v>293594.49503</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>220777.00341</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>228088.39197</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>201231.282</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>6019.87492</v>
+        <v>6019.874920000001</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>11565.5453</v>
@@ -7027,26 +7169,31 @@
         <v>58812.9127</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>31364.93857</v>
+        <v>35693.79504</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>35208.53287</v>
+        <v>35669.53089</v>
       </c>
       <c r="K145" s="25" t="n">
-        <v>44091.22941</v>
+        <v>44091.22941000001</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>28968.93595</v>
+        <v>28998.93595</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>66227.50595999999</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>68578.18062</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>63066.208</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0.5955</v>
@@ -7070,7 +7217,7 @@
         <v>2.1178</v>
       </c>
       <c r="J146" s="24" t="n">
-        <v>10.99276</v>
+        <v>19.64424</v>
       </c>
       <c r="K146" s="25" t="n">
         <v>6.28407</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>49.23195</v>
@@ -7107,10 +7259,10 @@
         <v>252.7548</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>216.19421</v>
+        <v>714.9117000000001</v>
       </c>
       <c r="J147" s="24" t="n">
-        <v>1582.34633</v>
+        <v>1633.84633</v>
       </c>
       <c r="K147" s="25" t="n">
         <v>1265.4387</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>21304.53476</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>21276.045</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>1613.20402</v>
@@ -7138,35 +7295,40 @@
         <v>3083.92621</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>7024.517809999999</v>
+        <v>7024.51781</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>6649.74156</v>
+        <v>6649.741559999999</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>5100.77959</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>3747.2445</v>
+        <v>3821.17983</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>5388.17962</v>
+        <v>5394.30512</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>16337.06658</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>19619.21923</v>
+        <v>19647.03523</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>10549.39342</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>11601.67557</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>16830.634</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>30568.74995</v>
@@ -7181,32 +7343,37 @@
         <v>39865.94871</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>53609.73407</v>
+        <v>53609.73407000001</v>
       </c>
       <c r="H149" s="33" t="n">
         <v>158733.54572</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>149028.80311</v>
+        <v>152992.25832</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>247317.7842</v>
+        <v>248614.49738</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>207581.7846</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>195971.98994</v>
+        <v>196651.29049</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>409487.88223</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>420560.36931</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>843151.133</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>21730.17022</v>
@@ -7221,32 +7388,37 @@
         <v>27148.17418</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>37459.96177</v>
+        <v>37459.96176999999</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>68714.14176</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>66326.287</v>
+        <v>69192.53329000001</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>138056.82317</v>
+        <v>139242.70441</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>118071.52136</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>152916.53773</v>
+        <v>153551.17374</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>287229.55859</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>297978.95766</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>406886.698</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7279,14 +7451,19 @@
         <v>0</v>
       </c>
       <c r="M151" s="22" t="n">
-        <v>5.06076</v>
-      </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+        <v>111.31262</v>
+      </c>
+      <c r="N151" s="22" t="n">
+        <v>793.934</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>124.08659</v>
@@ -7321,18 +7498,23 @@
       <c r="M152" s="22" t="n">
         <v>15136.3678</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>18949.71</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>457.72221</v>
       </c>
       <c r="D153" s="22" t="n">
-        <v>868.02395</v>
+        <v>868.0239499999999</v>
       </c>
       <c r="E153" s="22" t="n">
         <v>1317.6614</v>
@@ -7344,32 +7526,37 @@
         <v>2998.73143</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>5031.567800000001</v>
+        <v>5031.5678</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>5328.50086</v>
+        <v>5456.60167</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>8305.73084</v>
+        <v>8398.906209999999</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>6930.73143</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>8959.313579999998</v>
+        <v>8959.31358</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>15852.07313</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>16011.4581</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>11998.901</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
-        <v>8256.770929999999</v>
+        <v>8256.770930000001</v>
       </c>
       <c r="D154" s="22" t="n">
         <v>11101.99523</v>
@@ -7384,29 +7571,34 @@
         <v>13151.04087</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>84959.63387000001</v>
+        <v>84959.63386999999</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>77246.27211000002</v>
+        <v>78215.38021999999</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>100573.38909</v>
+        <v>100591.04566</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>82430.69819999998</v>
+        <v>82430.6982</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>25480.97953</v>
+        <v>25525.64407</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>91264.82195</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>91322.27312999999</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>404521.89</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>13147.30629</v>
@@ -7467,26 +7664,31 @@
         <v>131441.45465</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>163176.73711</v>
+        <v>163337.63769</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>188010.79801</v>
+        <v>188272.34508</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>387267.25205</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>413307.09226</v>
+        <v>413361.86477</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>444303.1642299999</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>445183.23898</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>437912.892</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>12890.71488</v>
@@ -7507,26 +7709,31 @@
         <v>130865.99585</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>162248.94479</v>
+        <v>162409.84537</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>186607.48847</v>
+        <v>186607.78954</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>385225.03607</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>379092.133</v>
+        <v>379146.90551</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>384536.81083</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>385339.61868</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>436017.283</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>256.59141</v>
@@ -7550,7 +7757,7 @@
         <v>927.79232</v>
       </c>
       <c r="J158" s="21" t="n">
-        <v>1403.30954</v>
+        <v>1664.55554</v>
       </c>
       <c r="K158" s="22" t="n">
         <v>2042.21598</v>
@@ -7559,14 +7766,19 @@
         <v>34214.95926</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>59766.3534</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>59843.6203</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>1895.609</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>733.2754200000001</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>8825.12285</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>10648.161</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>725.05474</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>8825.12285</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>10648.161</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>8.22068</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>3120.20149</v>
@@ -7695,38 +7922,43 @@
         <v>4676.19583</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>6118.18856</v>
+        <v>6118.188560000001</v>
       </c>
       <c r="F162" s="33" t="n">
         <v>7525.57915</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>8211.305390000001</v>
+        <v>8211.30539</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>19308.39588</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>23879.79454</v>
+        <v>24513.08663</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>32841.74659</v>
+        <v>33047.88685</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>39550.57236999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>38943.11316</v>
+        <v>39063.91203</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>83779.01348000001</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>84697.97485</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>71427.02</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1108.32877</v>
@@ -7747,26 +7979,31 @@
         <v>4822.34367</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>4712.398029999999</v>
+        <v>5272.795029999999</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>5712.23464</v>
+        <v>5799.99725</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>6050.931700000001</v>
+        <v>6050.9317</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>9940.149120000002</v>
+        <v>9973.044240000001</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>17918.15475000001</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>18502.74936</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>13316.99</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1226.52613</v>
@@ -7787,32 +8024,37 @@
         <v>3318.14982</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>4099.01834</v>
+        <v>4171.91343</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>4896.440199999999</v>
+        <v>4925.196470000001</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>5718.9097</v>
+        <v>5718.909699999999</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>5493.43561</v>
+        <v>5508.960290000001</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>10069.16515</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>10269.67858</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>7234.002</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>783.71043</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>685.1127200000001</v>
+        <v>685.11272</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>2431.78402</v>
@@ -7830,23 +8072,28 @@
         <v>15028.69705</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>22067.18666</v>
+        <v>22155.98204</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>27538.56674</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>23375.3357</v>
+        <v>23428.48896</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>55470.0115</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>55603.86483</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>50384.592</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>1.63616</v>
@@ -7870,23 +8117,28 @@
         <v>39.68112</v>
       </c>
       <c r="J166" s="21" t="n">
-        <v>165.88509</v>
+        <v>166.71109</v>
       </c>
       <c r="K166" s="22" t="n">
         <v>242.16423</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>134.19273</v>
+        <v>153.41854</v>
       </c>
       <c r="M166" s="22" t="n">
         <v>321.68208</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>491.436</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1293.19077</v>
@@ -7907,26 +8159,31 @@
         <v>1162.19979</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>1489.59921</v>
+        <v>1546.47345</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>1348.84659</v>
+        <v>1381.24948</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>2768.30599</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>2474.30087</v>
+        <v>2474.57212</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>13105.19933</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>13182.87256</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>14544.551</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>267.49027</v>
@@ -7947,26 +8204,31 @@
         <v>1415.94326</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>1297.83732</v>
+        <v>1354.71156</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>1982.7799</v>
+        <v>2015.18279</v>
       </c>
       <c r="K168" s="22" t="n">
-        <v>3097.126690000001</v>
+        <v>3097.12669</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>5658.24526</v>
+        <v>5658.603529999999</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>6470.92704</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>6731.574850000001</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>7419.509</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>110.7868</v>
@@ -7996,17 +8258,22 @@
         <v>1126.89989</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>4268.11642</v>
+        <v>4268.20344</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>2694.49444</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>2877.46902</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>4934.687</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>4600</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>4600</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>1119.806</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>4679.69203</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>7418.099</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>16.6813</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>49.0747</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>1122.91641</v>
@@ -8147,7 +8429,7 @@
         <v>1263.41107</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>787.86347</v>
+        <v>790.21547</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>1115.87918</v>
@@ -8156,20 +8438,25 @@
         <v>2116.55493</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>8230.240189999999</v>
+        <v>8230.66619</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>15773.00443</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>15792.6579</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>16863.848</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
-        <v>647.4086500000001</v>
+        <v>647.4086499999999</v>
       </c>
       <c r="D174" s="22" t="n">
         <v>1198.91175</v>
@@ -8193,20 +8480,25 @@
         <v>282.14897</v>
       </c>
       <c r="K174" s="22" t="n">
-        <v>788.1505400000001</v>
+        <v>788.1505399999999</v>
       </c>
       <c r="L174" s="22" t="n">
-        <v>4423.808220000001</v>
+        <v>4423.80822</v>
       </c>
       <c r="M174" s="22" t="n">
         <v>3427.94335</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>1472.922</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>475.50776</v>
@@ -8227,7 +8519,7 @@
         <v>402.14165</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>527.4586400000001</v>
+        <v>529.81064</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>833.7302099999999</v>
@@ -8236,17 +8528,22 @@
         <v>1328.40439</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>3806.43197</v>
+        <v>3806.85797</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>12345.06108</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>12364.71455</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>15390.926</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0</v>
@@ -8264,7 +8561,7 @@
         <v>34.015</v>
       </c>
       <c r="H176" s="33" t="n">
-        <v>7.901899999999999</v>
+        <v>7.9019</v>
       </c>
       <c r="I176" s="23" t="n">
         <v>27.27142</v>
@@ -8279,14 +8576,19 @@
         <v>2990.84153</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>103.94687</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>117.93051</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>73.648</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>226.62467</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>103.94687</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>100.08009</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>57.594</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8479,14 +8801,19 @@
         <v>0</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>17.85042</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>15.872</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>124729.2557</v>
@@ -8501,32 +8828,37 @@
         <v>306204.83452</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>490985.2856</v>
+        <v>490985.2855999999</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>628855.6206</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>624474.4311</v>
+        <v>686924.28393</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>672977.5450500001</v>
+        <v>674001.42622</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>526261.1056199999</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>749991.4294499999</v>
+        <v>749994.31415</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>1247362.51157</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>1250552.57592</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>970154.279</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>45116.81874</v>
@@ -8547,7 +8879,7 @@
         <v>102274.33933</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>102147.04019</v>
+        <v>161105.67208</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>170013.68015</v>
@@ -8559,14 +8891,19 @@
         <v>442474.83086</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>548035.4875699999</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>549080.15107</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>408737.978</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>45046.90884</v>
@@ -8587,7 +8924,7 @@
         <v>101570.05731</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>101180.94809</v>
+        <v>115572.74167</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>116761.35116</v>
@@ -8599,14 +8936,19 @@
         <v>370510.03559</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>478433.28475</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>479477.94825</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>316818.38</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>115.54347</v>
@@ -8627,7 +8969,7 @@
         <v>1204.51259</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>724.54782</v>
+        <v>60234.72126999999</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>66699.06771</v>
@@ -8636,17 +8978,22 @@
         <v>71897.18452</v>
       </c>
       <c r="L185" s="22" t="n">
-        <v>87196.31940000001</v>
+        <v>87196.31939999999</v>
       </c>
       <c r="M185" s="22" t="n">
         <v>81821.88567</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>104043.457</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>45.63357</v>
@@ -8667,7 +9014,7 @@
         <v>500.23057</v>
       </c>
       <c r="I186" s="22" t="n">
-        <v>81.21572</v>
+        <v>15024.55086</v>
       </c>
       <c r="J186" s="21" t="n">
         <v>15137.62862</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>12618.33211</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>12522.508</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>398.64926</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>398.649</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>2240.98413</v>
@@ -8870,23 +9242,28 @@
         <v>1869.64926</v>
       </c>
       <c r="J191" s="33" t="n">
-        <v>16698.41705</v>
+        <v>16747.1744</v>
       </c>
       <c r="K191" s="23" t="n">
         <v>19954.72998</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>17884.50077</v>
+        <v>17887.38547</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>19243.08967</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>20800.30873</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>30293.031</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>63.68157</v>
@@ -8916,17 +9293,22 @@
         <v>3108.07219</v>
       </c>
       <c r="L192" s="22" t="n">
-        <v>5360.03309</v>
+        <v>5362.91779</v>
       </c>
       <c r="M192" s="22" t="n">
-        <v>647.89706</v>
-      </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+        <v>2205.11612</v>
+      </c>
+      <c r="N192" s="22" t="n">
+        <v>1507.449</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>347.6125</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>18556.42161</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>28677.182</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>1829.69006</v>
@@ -9030,7 +9422,7 @@
         <v>78.75735</v>
       </c>
       <c r="J195" s="21" t="n">
-        <v>34.97</v>
+        <v>83.72735</v>
       </c>
       <c r="K195" s="22" t="n">
         <v>240.69735</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>3.071</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,21 +9478,26 @@
       <c r="M196" s="22" t="n">
         <v>35.7</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>81.92</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>29226.76952</v>
       </c>
       <c r="D197" s="23" t="n">
-        <v>34310.52040000001</v>
+        <v>34310.5204</v>
       </c>
       <c r="E197" s="23" t="n">
-        <v>40505.31111000001</v>
+        <v>40505.31111</v>
       </c>
       <c r="F197" s="33" t="n">
         <v>52850.32289</v>
@@ -9107,7 +9509,7 @@
         <v>17649.52537</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>44677.93193</v>
+        <v>45155.23044</v>
       </c>
       <c r="J197" s="33" t="n">
         <v>52987.44556</v>
@@ -9119,14 +9521,19 @@
         <v>102858.22679</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>95532.30623</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>96120.48802</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>124203.557</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>11341.74292</v>
@@ -9147,7 +9554,7 @@
         <v>15716.34553</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>42833.09862</v>
+        <v>43310.39713</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>41962.77490999999</v>
@@ -9159,14 +9566,19 @@
         <v>69901.64893000001</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>66737.16346000001</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>67325.34525</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>78751.459</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>40</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>661.51</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>757.64</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>17646.49367</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>12946.39638</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>11980.233</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>198.53293</v>
@@ -9338,7 +9770,7 @@
         <v>1038.99481</v>
       </c>
       <c r="F203" s="21" t="n">
-        <v>495.9089900000001</v>
+        <v>495.90899</v>
       </c>
       <c r="G203" s="22" t="n">
         <v>57.13345</v>
@@ -9350,7 +9782,7 @@
         <v>367.3678</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>9238.667350000002</v>
+        <v>9238.66735</v>
       </c>
       <c r="K203" s="22" t="n">
         <v>11846.45852</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>15187.23639</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>32714.225</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>44016.1366</v>
@@ -9381,13 +9818,13 @@
         <v>195610.64401</v>
       </c>
       <c r="G204" s="23" t="n">
-        <v>352567.5406899999</v>
+        <v>352567.54069</v>
       </c>
       <c r="H204" s="33" t="n">
         <v>500274.12427</v>
       </c>
       <c r="I204" s="23" t="n">
-        <v>464251.8244700001</v>
+        <v>464607.47735</v>
       </c>
       <c r="J204" s="33" t="n">
         <v>422052.39532</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>567099.38477</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>387562.886</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>42567.15851</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>456531.01456</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>275983.895</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>1448.97809</v>
@@ -9467,7 +9914,7 @@
         <v>19334.41516</v>
       </c>
       <c r="I206" s="22" t="n">
-        <v>17289.18157</v>
+        <v>17644.83445</v>
       </c>
       <c r="J206" s="21" t="n">
         <v>15641.43895</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>110568.37021</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>111578.991</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>240.35983</v>
@@ -9510,7 +9962,7 @@
         <v>722.4545099999999</v>
       </c>
       <c r="J207" s="33" t="n">
-        <v>214.989</v>
+        <v>755.67592</v>
       </c>
       <c r="K207" s="23" t="n">
         <v>972.81911</v>
@@ -9519,14 +9971,19 @@
         <v>6682.87949</v>
       </c>
       <c r="M207" s="23" t="n">
-        <v>7095.516680000001</v>
-      </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+        <v>7095.51668</v>
+      </c>
+      <c r="N207" s="23" t="n">
+        <v>7634.651</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>240.33205</v>
@@ -9550,7 +10007,7 @@
         <v>707.4655099999999</v>
       </c>
       <c r="J208" s="21" t="n">
-        <v>200</v>
+        <v>740.68692</v>
       </c>
       <c r="K208" s="22" t="n">
         <v>957.83011</v>
@@ -9559,14 +10016,19 @@
         <v>6667.89049</v>
       </c>
       <c r="M208" s="22" t="n">
-        <v>7080.527680000001</v>
-      </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+        <v>7080.52768</v>
+      </c>
+      <c r="N208" s="22" t="n">
+        <v>7634.651</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0.02778</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>14.989</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>3888.18688</v>
@@ -9618,7 +10085,7 @@
         <v>6331.46368</v>
       </c>
       <c r="F210" s="33" t="n">
-        <v>8375.168510000001</v>
+        <v>8375.16851</v>
       </c>
       <c r="G210" s="23" t="n">
         <v>9273.16907</v>
@@ -9627,10 +10094,10 @@
         <v>6384.99083</v>
       </c>
       <c r="I210" s="23" t="n">
-        <v>10771.05224</v>
+        <v>13429.32179</v>
       </c>
       <c r="J210" s="33" t="n">
-        <v>10976.13947</v>
+        <v>11410.57637</v>
       </c>
       <c r="K210" s="23" t="n">
         <v>11888.11465</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>9610.262859999999</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>11618.141</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>3888.18688</v>
@@ -9667,10 +10139,10 @@
         <v>6306.31218</v>
       </c>
       <c r="I211" s="22" t="n">
-        <v>10735.42308</v>
+        <v>13393.69263</v>
       </c>
       <c r="J211" s="21" t="n">
-        <v>10775.24197</v>
+        <v>11209.67887</v>
       </c>
       <c r="K211" s="22" t="n">
         <v>11237.69525</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>7860.53246</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>9163.428</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9713,7 +10190,7 @@
         <v>200.8975</v>
       </c>
       <c r="K212" s="22" t="n">
-        <v>650.4194</v>
+        <v>650.4193999999999</v>
       </c>
       <c r="L212" s="22" t="n">
         <v>1050.27166</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>1749.7304</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>2454.713</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>746.46379</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>104.035</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>711.9852900000001</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>34.4785</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>104.035</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>108213.45469</v>
@@ -9901,32 +10403,37 @@
         <v>237455.14907</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>179921.4604</v>
+        <v>179934.46863</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>215344.69609</v>
+        <v>215364.34048</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>229426.69969</v>
+        <v>296624.14081</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>309389.02098</v>
+        <v>319877.41213</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>385599.17512</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>330132.27463</v>
+        <v>329770.11622</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>280382.19604</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>289111.43699</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>56044.771</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>100437.42999</v>
@@ -9947,10 +10454,10 @@
         <v>237317.49775</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>272243.68835</v>
+        <v>295522.50372</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>310823.30289</v>
+        <v>321884.20803</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>399618.45477</v>
@@ -9959,14 +10466,19 @@
         <v>460162.15099</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>516684.095</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>527770.6442400001</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>636983.192</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>90778.24599000001</v>
@@ -9987,26 +10499,31 @@
         <v>249632.65683</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>292906.30323</v>
+        <v>316256.30323</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>318860.77522</v>
+        <v>324350.77522</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>414732.64797</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>479405.53702</v>
+        <v>485355.53702</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>545684.59612</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>574828.59612</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>814438.584</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>10595.55383</v>
@@ -10027,26 +10544,31 @@
         <v>36036.86464</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>40907.79191000001</v>
+        <v>41020.29191000001</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>21965.05796</v>
+        <v>24215.05796</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>35889.29215</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>31503.33709</v>
+        <v>37453.33708999999</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>41067.32861</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>59157.50322999999</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>189465.476</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>20268.80706</v>
@@ -10067,10 +10589,10 @@
         <v>23754.92839</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>20270.89986</v>
+        <v>20312.21523</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>13953.30846</v>
+        <v>21774.2136</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>20800.82179</v>
@@ -10079,14 +10601,19 @@
         <v>12285.67389</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>12092.55032</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>12125.27418</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>12035.115</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>14.06923</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>25.72283</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>25.031</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>1003.5089</v>
@@ -10138,7 +10670,7 @@
         <v>1396.39857</v>
       </c>
       <c r="F223" s="33" t="n">
-        <v>890.5326</v>
+        <v>890.5326000000001</v>
       </c>
       <c r="G223" s="23" t="n">
         <v>1095.814</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>14168.70796</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>16015.687</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>94.70794000000001</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>94.70794000000001</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>94.708</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0.37738</v>
@@ -10261,7 +10808,7 @@
         <v>788.96491</v>
       </c>
       <c r="G226" s="22" t="n">
-        <v>633.75932</v>
+        <v>633.7593200000001</v>
       </c>
       <c r="H226" s="21" t="n">
         <v>554.9286000000001</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>1481.75046</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>1439.192</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>174.27998</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>279.35</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>981.0613999999999</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>576.062</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>908.4235800000001</v>
@@ -10430,10 +10997,10 @@
         <v>3116.1136</v>
       </c>
       <c r="J230" s="21" t="n">
-        <v>5353.52386</v>
+        <v>5353.523859999999</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>5776.18702</v>
+        <v>5776.187019999999</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>9611.87398</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>11436.90818</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>13626.375</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>26405.83618</v>
@@ -10458,7 +11030,7 @@
         <v>34012.31348</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>49261.55321000001</v>
+        <v>49261.55321</v>
       </c>
       <c r="G231" s="23" t="n">
         <v>34926.84937</v>
@@ -10467,29 +11039,34 @@
         <v>42632.6612</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>42937.40498000001</v>
+        <v>46449.56852</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>109831.48331</v>
+        <v>109964.01736</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>115247.99893</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>107598.98793</v>
+        <v>107600.89444</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>110227.70474</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>110242.7738</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>122932.979</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>656.13891</v>
+        <v>656.1389099999999</v>
       </c>
       <c r="D232" s="22" t="n">
         <v>671.81859</v>
@@ -10507,26 +11084,31 @@
         <v>1631.1368</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>968.70327</v>
+        <v>1582.75161</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>2089.38199</v>
+        <v>2150.92481</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>2184.68238</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>2745.6329</v>
+        <v>2747.53941</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>2850.43203</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>2865.50109</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>3266.483</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>143.08015</v>
@@ -10550,7 +11132,7 @@
         <v>184.31486</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>195.89015</v>
+        <v>197.70221</v>
       </c>
       <c r="K233" s="22" t="n">
         <v>193.76234</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>191.66176</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>2591.793</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>2013.56881</v>
@@ -10590,23 +11177,28 @@
         <v>2939.07126</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>6464.23864</v>
+        <v>6517.6102</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>6424.086859999999</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>6857.16</v>
+        <v>6857.160000000001</v>
       </c>
       <c r="M234" s="22" t="n">
         <v>6835.904320000001</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>14235.546</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0.4</v>
@@ -10630,7 +11222,7 @@
         <v>15.80761</v>
       </c>
       <c r="J235" s="21" t="n">
-        <v>0</v>
+        <v>15.80761</v>
       </c>
       <c r="K235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>5.35334</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>23592.64831</v>
@@ -10667,7 +11264,7 @@
         <v>38173.48713</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>38829.50797999999</v>
+        <v>41727.62318</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>101081.97253</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>100344.35329</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>102839.157</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>16656.61357</v>
@@ -10701,32 +11303,37 @@
         <v>25703.5497</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>27638.91374</v>
+        <v>27651.64322</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>34873.23983</v>
+        <v>34883.96099</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>39894.95973</v>
+        <v>40179.17249</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>70112.33375000001</v>
+        <v>70166.51401</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>79979.54806</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>76090.07147</v>
+        <v>76141.94012</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>124061.56237</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>125663.13086</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>147416.179</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-28648.46736</v>
@@ -10741,32 +11348,37 @@
         <v>-52890.96302</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-58652.89516000001</v>
+        <v>-58653.59376999999</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-79608.78892000001</v>
+        <v>-79608.78891999999</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-93440.01389999999</v>
+        <v>-99475.72659000001</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-144150.64741</v>
+        <v>-145033.38644</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-198507.64839</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-253299.16684</v>
+        <v>-253429.32256</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-366126.51871</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-368892.6284700001</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-531047.624</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-7641.46659</v>
@@ -10778,35 +11390,40 @@
         <v>-10363.03059</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>5350.50004</v>
+        <v>5350.500040000001</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-12151.2915</v>
+        <v>-12150.31414</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-22726.4907</v>
+        <v>-22717.56747</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-35974.04631000001</v>
+        <v>10183.91583</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-43814.86906</v>
+        <v>-43691.35833</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-17828.57017</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-72848.77435999998</v>
+        <v>-73134.55221000001</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-118633.35532</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-119841.1914</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-336255.642</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>2492.28429</v>
@@ -10821,38 +11438,43 @@
         <v>17123.59604</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>8076.2966</v>
+        <v>8077.27396</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>12571.61632</v>
+        <v>12580.53955</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>9893.682630000001</v>
+        <v>58467.22548</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>21676.96352</v>
+        <v>21811.93387</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>32528.3291</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>37962.6456</v>
+        <v>38006.03318</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>51366.81408</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>52186.60196000001</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>40704.11</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>10133.75088</v>
       </c>
       <c r="D241" s="22" t="n">
-        <v>7193.140460000001</v>
+        <v>7193.14046</v>
       </c>
       <c r="E241" s="22" t="n">
         <v>17428.80446</v>
@@ -10867,63 +11489,71 @@
         <v>35298.10702</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>45867.72894</v>
+        <v>48283.30965</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>65491.83258</v>
+        <v>65503.2922</v>
       </c>
       <c r="K241" s="22" t="n">
-        <v>50356.89926999999</v>
+        <v>50356.89927</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>110811.41996</v>
+        <v>111140.58539</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>170000.1694</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>172027.79336</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>376959.752</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>315885.45925</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>378632.2991800001</v>
+        <v>378632.29918</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>521158.60148</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>752253.58213</v>
+        <v>752253.5821300001</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>960818.9582399998</v>
+        <v>960831.96647</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>1340248.46965</v>
+        <v>1340268.11404</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1355130.12965</v>
+        <v>1498142.70605</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1637332.95392</v>
+        <v>1651593.68014</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>1777809.40377</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>2208986.17132</v>
+        <v>2210358.93362</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2934432.87409</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2970629.501269999</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>2833480.806</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>174</v>
@@ -10957,29 +11590,32 @@
         <v>302</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>671</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>777</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>867</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>1006</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>